--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H2">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I2">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J2">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>1848.600969695205</v>
+        <v>44.63226435922223</v>
       </c>
       <c r="R2">
-        <v>16637.40872725684</v>
+        <v>401.690379233</v>
       </c>
       <c r="S2">
-        <v>0.09632599544200435</v>
+        <v>0.003662709047407038</v>
       </c>
       <c r="T2">
-        <v>0.09632599544200433</v>
+        <v>0.003662709047407038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H3">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I3">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J3">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>1604.354364722393</v>
+        <v>58.81145561475557</v>
       </c>
       <c r="R3">
-        <v>14439.18928250154</v>
+        <v>529.3031005328</v>
       </c>
       <c r="S3">
-        <v>0.08359891277623292</v>
+        <v>0.004826312392255611</v>
       </c>
       <c r="T3">
-        <v>0.08359891277623289</v>
+        <v>0.004826312392255609</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H4">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I4">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J4">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>2243.170069200879</v>
+        <v>82.22877679768891</v>
       </c>
       <c r="R4">
-        <v>20188.53062280791</v>
+        <v>740.0589911792001</v>
       </c>
       <c r="S4">
-        <v>0.1168860091516184</v>
+        <v>0.006748035060692078</v>
       </c>
       <c r="T4">
-        <v>0.1168860091516184</v>
+        <v>0.006748035060692078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I5">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J5">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>2910.845455697232</v>
+        <v>1917.181652228469</v>
       </c>
       <c r="R5">
-        <v>26197.60910127509</v>
+        <v>17254.63487005622</v>
       </c>
       <c r="S5">
-        <v>0.1516769117264399</v>
+        <v>0.1573318917145425</v>
       </c>
       <c r="T5">
-        <v>0.1516769117264399</v>
+        <v>0.1573318917145425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I6">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J6">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>2526.24968202315</v>
@@ -818,10 +818,10 @@
         <v>22736.24713820835</v>
       </c>
       <c r="S6">
-        <v>0.1316365832027282</v>
+        <v>0.2073145447401761</v>
       </c>
       <c r="T6">
-        <v>0.1316365832027282</v>
+        <v>0.2073145447401761</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I7">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J7">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>3532.142149295747</v>
@@ -880,10 +880,10 @@
         <v>31789.27934366172</v>
       </c>
       <c r="S7">
-        <v>0.1840511360489395</v>
+        <v>0.2898622597954768</v>
       </c>
       <c r="T7">
-        <v>0.1840511360489395</v>
+        <v>0.2898622597954768</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>37.646287</v>
       </c>
       <c r="I8">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J8">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>1468.764403495861</v>
+        <v>967.3781066999545</v>
       </c>
       <c r="R8">
-        <v>13218.87963146274</v>
+        <v>8706.402960299591</v>
       </c>
       <c r="S8">
-        <v>0.0765336573743373</v>
+        <v>0.0793870666107329</v>
       </c>
       <c r="T8">
-        <v>0.07653365737433729</v>
+        <v>0.07938706661073289</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>37.646287</v>
       </c>
       <c r="I9">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J9">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>1274.703746307127</v>
@@ -1004,10 +1004,10 @@
         <v>11472.33371676414</v>
       </c>
       <c r="S9">
-        <v>0.06642163953691489</v>
+        <v>0.104607485445628</v>
       </c>
       <c r="T9">
-        <v>0.06642163953691486</v>
+        <v>0.104607485445628</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>37.646287</v>
       </c>
       <c r="I10">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J10">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>1782.260424310402</v>
@@ -1066,10 +1066,10 @@
         <v>16040.34381879362</v>
       </c>
       <c r="S10">
-        <v>0.09286915474078465</v>
+        <v>0.1462596951930891</v>
       </c>
       <c r="T10">
-        <v>0.09286915474078464</v>
+        <v>0.146259695193089</v>
       </c>
     </row>
   </sheetData>
